--- a/DesignerConfigs/Datas/demo.xlsx
+++ b/DesignerConfigs/Datas/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="8730" firstSheet="17" activeTab="22"/>
+    <workbookView windowWidth="16095" windowHeight="8730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="196">
   <si>
     <t>##var</t>
   </si>
@@ -131,6 +131,9 @@
     <t>x8</t>
   </si>
   <si>
+    <t>x8_escaped</t>
+  </si>
+  <si>
     <t>x9</t>
   </si>
   <si>
@@ -152,12 +155,21 @@
     <t>double</t>
   </si>
   <si>
+    <t>string#escape=1</t>
+  </si>
+  <si>
     <t>datetime</t>
   </si>
   <si>
+    <t>转义字符串</t>
+  </si>
+  <si>
     <t>hello</t>
   </si>
   <si>
+    <t>abc\ndef\nxxx</t>
+  </si>
+  <si>
     <t>1999-09-09 00:00:00</t>
   </si>
   <si>
@@ -165,6 +177,9 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>aaa\t\tbbb</t>
   </si>
   <si>
     <t>1999-09-09 00:00:02</t>
@@ -1739,16 +1754,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1759,16 +1774,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1789,16 +1804,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1834,26 +1849,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="L1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1864,26 +1879,26 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1904,31 +1919,31 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="s">
         <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" t="s">
-        <v>128</v>
-      </c>
-      <c r="N5" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1967,21 +1982,21 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -1998,26 +2013,26 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -2031,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>9</v>
@@ -2048,10 +2063,10 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>9</v>
@@ -2059,10 +2074,10 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>9</v>
@@ -2077,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="R4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="S4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>9</v>
@@ -2099,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="V5" s="3"/>
     </row>
@@ -2120,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -2132,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -2150,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="T6">
         <v>10</v>
@@ -2173,7 +2188,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -2185,7 +2200,7 @@
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M7">
         <v>12</v>
@@ -2203,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="T7">
         <v>11</v>
@@ -2226,7 +2241,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>13</v>
@@ -2238,7 +2253,7 @@
         <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M8">
         <v>13</v>
@@ -2256,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="S8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="T8">
         <v>12</v>
@@ -2279,7 +2294,7 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>14</v>
@@ -2291,7 +2306,7 @@
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M9">
         <v>14</v>
@@ -2309,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="T9">
         <v>13</v>
@@ -2332,7 +2347,7 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2344,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M10">
         <v>15</v>
@@ -2362,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="T10">
         <v>14</v>
@@ -2415,14 +2430,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
@@ -2433,7 +2448,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
@@ -2447,30 +2462,30 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -2481,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>9</v>
@@ -2498,37 +2513,37 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" t="s">
         <v>148</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>149</v>
       </c>
-      <c r="O3" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>144</v>
-      </c>
       <c r="R3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="S3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="T3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="U3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2536,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2561,7 +2576,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -2570,13 +2585,13 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L6">
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P6">
         <v>10</v>
@@ -2585,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="S6">
         <v>100</v>
@@ -2599,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -2608,10 +2623,10 @@
         <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="T7">
         <v>10</v>
@@ -2628,13 +2643,13 @@
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L8">
         <v>200</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -2643,7 +2658,7 @@
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S8">
         <v>200</v>
@@ -2657,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>14</v>
@@ -2666,7 +2681,7 @@
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -2675,7 +2690,7 @@
         <v>200</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P9">
         <v>30</v>
@@ -2684,7 +2699,7 @@
         <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2754,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2750,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2872,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -2886,7 +2901,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2897,10 +2912,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2910,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2921,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -2935,7 +2950,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -2946,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -2988,12 +3003,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3004,12 +3019,12 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3038,13 +3053,13 @@
         <v>1001</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -3055,13 +3070,13 @@
         <v>1002</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="2:6">
@@ -3075,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -3086,13 +3101,13 @@
         <v>1003</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="2:6">
@@ -3103,10 +3118,10 @@
         <v>1004</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3139,17 +3154,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3168,17 +3183,17 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3194,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -3211,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3220,7 +3235,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -3232,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -3243,7 +3258,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -3252,7 +3267,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -3264,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -3275,7 +3290,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -3286,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3295,7 +3310,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -3304,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -3315,7 +3330,7 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="3:5">
@@ -3323,7 +3338,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -3364,14 +3379,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3386,14 +3401,14 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3405,19 +3420,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -3446,10 +3461,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3466,13 +3481,13 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -3486,13 +3501,13 @@
         <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3523,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -3563,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -3577,7 +3592,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3591,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -3605,7 +3620,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -3619,7 +3634,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -3633,7 +3648,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -3647,7 +3662,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -3661,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3828,16 +3843,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3848,7 +3863,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3865,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -3879,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3893,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -3907,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -3921,7 +3936,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -3935,7 +3950,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3949,7 +3964,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -3963,7 +3978,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -3991,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4011,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4028,7 +4043,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -4042,7 +4057,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -4056,7 +4071,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -4070,7 +4085,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -4084,7 +4099,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -4098,7 +4113,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -4112,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -4126,7 +4141,7 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -4161,10 +4176,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -4178,7 +4193,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4195,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4212,15 +4227,15 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4229,15 +4244,15 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4246,15 +4261,15 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4263,10 +4278,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4277,15 +4292,15 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -4294,10 +4309,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -4308,10 +4323,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4325,7 +4340,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4343,10 +4358,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -4360,7 +4375,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4377,10 +4392,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4394,15 +4409,15 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4411,15 +4426,15 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4428,15 +4443,15 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4445,10 +4460,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4459,15 +4474,15 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -4476,10 +4491,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -4490,10 +4505,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4505,10 +4520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4516,10 +4531,11 @@
     <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
     <col min="9" max="10" width="9.57142857142857"/>
-    <col min="11" max="11" width="21.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="16.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="21.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4553,8 +4569,11 @@
       <c r="K1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4562,31 +4581,34 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4603,15 +4625,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -4637,13 +4662,16 @@
         <v>112233.5</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>1002</v>
       </c>
@@ -4669,18 +4697,21 @@
         <v>112234.5</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -4701,13 +4732,16 @@
         <v>112235.5</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>1004</v>
       </c>
@@ -4733,13 +4767,16 @@
         <v>112236.5</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>1005</v>
       </c>
@@ -4765,18 +4802,21 @@
         <v>112237.5</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>1006</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>46</v>
+      <c r="L10" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4839,19 +4879,19 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -4864,43 +4904,43 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -4932,40 +4972,40 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -4994,16 +5034,16 @@
         <v>112234.5</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>1001</v>
@@ -5012,10 +5052,10 @@
         <v>10</v>
       </c>
       <c r="P6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R6">
         <v>10</v>
@@ -5026,7 +5066,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -5047,16 +5087,16 @@
         <v>112235.5</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1002</v>
@@ -5065,10 +5105,10 @@
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="R7">
         <v>10</v>
@@ -5100,16 +5140,16 @@
         <v>112236.5</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1003</v>
@@ -5118,10 +5158,10 @@
         <v>10</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="R8">
         <v>10</v>
@@ -5156,16 +5196,16 @@
         <v>112237.5</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1004</v>
@@ -5174,10 +5214,10 @@
         <v>10</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R9">
         <v>20</v>
@@ -5191,7 +5231,7 @@
         <v>1006</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1005</v>
@@ -5200,10 +5240,10 @@
         <v>10</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="R10">
         <v>21</v>
@@ -5267,13 +5307,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5284,16 +5324,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5320,10 +5360,10 @@
         <v>1001</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5337,10 +5377,10 @@
         <v>1002</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5354,10 +5394,10 @@
         <v>1003</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5371,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5385,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -5405,7 +5445,7 @@
         <v>1006</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -5416,7 +5456,7 @@
         <v>1007</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -5454,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5467,7 +5507,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5501,7 +5541,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -5515,7 +5555,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -5529,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -5543,7 +5583,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5576,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -5590,7 +5630,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -5617,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -5628,7 +5668,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -5645,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -5656,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -5724,22 +5764,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -5796,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:15">
@@ -5828,13 +5868,13 @@
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -5863,13 +5903,13 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -5901,13 +5941,13 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5958,7 +5998,7 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -5967,16 +6007,16 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5987,28 +6027,28 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6029,28 +6069,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/demo.xlsx
+++ b/DesignerConfigs/Datas/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="8730" activeTab="2"/>
+    <workbookView windowWidth="16095" windowHeight="8730" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="Sheet15" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet16" sheetId="22" r:id="rId22"/>
     <sheet name="Sheet17" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet18" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="198">
   <si>
     <t>##var</t>
   </si>
@@ -624,6 +625,12 @@
   </si>
   <si>
     <t>--excludeTag dev时不导出，同时不对此数据执行任何data validator</t>
+  </si>
+  <si>
+    <t>(list#sep=|),int</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
   </si>
 </sst>
 </file>
@@ -789,12 +796,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1139,7 +1152,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,16 +1176,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1181,117 +1194,123 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1848,19 +1867,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="L1" t="s">
         <v>126</v>
       </c>
@@ -1878,19 +1897,19 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="L2" t="s">
         <v>129</v>
       </c>
@@ -1976,34 +1995,34 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="7" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
@@ -2012,34 +2031,34 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
@@ -2057,35 +2076,35 @@
       <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" t="s">
         <v>148</v>
       </c>
       <c r="L3" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
       <c r="P3" t="s">
         <v>148</v>
       </c>
       <c r="Q3" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
@@ -2103,23 +2122,23 @@
       <c r="S4" t="s">
         <v>149</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="V5" s="3"/>
+      <c r="V5" s="5"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6">
@@ -2424,35 +2443,35 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="7" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="7" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -2461,35 +2480,35 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -2507,11 +2526,11 @@
       <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" t="s">
         <v>151</v>
       </c>
@@ -2739,12 +2758,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2753,12 +2772,12 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -2886,12 +2905,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2900,12 +2919,12 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -2914,11 +2933,11 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4">
@@ -3002,11 +3021,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" t="s">
         <v>157</v>
       </c>
@@ -3018,11 +3037,11 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>158</v>
       </c>
@@ -3031,11 +3050,11 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -3079,17 +3098,17 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="2:6">
-      <c r="B7" s="5">
+    <row r="7" s="7" customFormat="1" spans="2:6">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>1003</v>
       </c>
-      <c r="E7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3110,17 +3129,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" spans="2:6">
-      <c r="B9" s="5">
+    <row r="9" s="7" customFormat="1" spans="2:6">
+      <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>1004</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3153,27 +3172,27 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -3182,27 +3201,27 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -3378,20 +3397,20 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -3400,20 +3419,20 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -4428,7 +4447,7 @@
       <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4445,7 +4464,7 @@
       <c r="D6" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4493,7 +4512,7 @@
       <c r="D9" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4512,6 +4531,99 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4522,7 +4634,7 @@
   <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -4667,7 +4779,7 @@
       <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4702,7 +4814,7 @@
       <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4710,7 +4822,7 @@
       <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D7">
@@ -4737,7 +4849,7 @@
       <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4772,7 +4884,7 @@
       <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4807,7 +4919,7 @@
       <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="13" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4815,7 +4927,7 @@
       <c r="B10">
         <v>1006</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4884,17 +4996,17 @@
       <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="7" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -4933,17 +5045,17 @@
       <c r="L2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -5036,7 +5148,7 @@
       <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="13" t="s">
         <v>45</v>
       </c>
       <c r="L6" t="s">
@@ -5065,7 +5177,7 @@
       <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D7">
@@ -5089,7 +5201,7 @@
       <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L7" t="s">
@@ -5142,7 +5254,7 @@
       <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="13" t="s">
         <v>49</v>
       </c>
       <c r="L8">
@@ -5198,7 +5310,7 @@
       <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="13" t="s">
         <v>50</v>
       </c>
       <c r="L9">
@@ -5292,12 +5404,12 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -5312,12 +5424,12 @@
       <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -5393,7 +5505,7 @@
       <c r="B8">
         <v>1003</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D8" t="s">
@@ -5407,7 +5519,7 @@
       <c r="B9">
         <v>1004</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" t="s">
@@ -5421,7 +5533,7 @@
       <c r="B10">
         <v>1005</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" t="s">
@@ -5444,7 +5556,7 @@
       <c r="B11">
         <v>1006</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D11">
@@ -5455,7 +5567,7 @@
       <c r="B12">
         <v>1007</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D12">
@@ -5493,11 +5605,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -5506,21 +5618,21 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -5615,12 +5727,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5629,20 +5741,20 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -5734,27 +5846,27 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -5763,35 +5875,35 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">

--- a/DesignerConfigs/Datas/demo.xlsx
+++ b/DesignerConfigs/Datas/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="8730" firstSheet="18" activeTab="23"/>
+    <workbookView windowWidth="23490" windowHeight="12765" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,15 @@
     <sheet name="Sheet16" sheetId="22" r:id="rId22"/>
     <sheet name="Sheet17" sheetId="23" r:id="rId23"/>
     <sheet name="Sheet18" sheetId="24" r:id="rId24"/>
+    <sheet name="Sheet19" sheetId="25" r:id="rId25"/>
+    <sheet name="Sheet20" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="203">
   <si>
     <t>##var</t>
   </si>
@@ -549,18 +551,24 @@
     <t>*y1</t>
   </si>
   <si>
+    <t>*y2</t>
+  </si>
+  <si>
     <t>list,Type1</t>
   </si>
   <si>
     <t>map,int,Type1</t>
   </si>
   <si>
+    <t>map,int,TestValue</t>
+  </si>
+  <si>
+    <t>$key</t>
+  </si>
+  <si>
     <t>bb</t>
   </si>
   <si>
-    <t>*y2</t>
-  </si>
-  <si>
     <t>*y3</t>
   </si>
   <si>
@@ -631,6 +639,34 @@
   </si>
   <si>
     <t>1|2|3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <t>map,int,int</t>
+  </si>
+  <si>
+    <t>注释行</t>
   </si>
 </sst>
 </file>
@@ -643,10 +679,31 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -805,6 +862,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -872,24 +947,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,163 +1203,163 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1310,7 +1367,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1867,19 +1942,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="L1" t="s">
         <v>126</v>
       </c>
@@ -1897,19 +1972,19 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
       <c r="L2" t="s">
         <v>129</v>
       </c>
@@ -1995,34 +2070,34 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="9" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
@@ -2031,34 +2106,34 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
@@ -2076,35 +2151,35 @@
       <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" t="s">
         <v>148</v>
       </c>
       <c r="L3" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
       <c r="P3" t="s">
         <v>148</v>
       </c>
       <c r="Q3" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
@@ -2122,23 +2197,23 @@
       <c r="S4" t="s">
         <v>149</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="V5" s="5"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6">
@@ -2443,35 +2518,35 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="9" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="4" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="9" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -2480,35 +2555,35 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -2526,11 +2601,11 @@
       <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" t="s">
         <v>151</v>
       </c>
@@ -2758,12 +2833,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2772,12 +2847,12 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -2905,12 +2980,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2919,12 +2994,12 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -2933,11 +3008,11 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4">
@@ -3021,11 +3096,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="F1" t="s">
         <v>157</v>
       </c>
@@ -3037,11 +3112,11 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" t="s">
         <v>158</v>
       </c>
@@ -3050,11 +3125,11 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -3098,17 +3173,17 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="2:6">
-      <c r="B7" s="7">
+    <row r="7" s="13" customFormat="1" spans="2:6">
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="13">
         <v>1003</v>
       </c>
-      <c r="E7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3129,17 +3204,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="2:6">
-      <c r="B9" s="7">
+    <row r="9" s="13" customFormat="1" spans="2:6">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="13">
         <v>1004</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3159,8 +3234,8 @@
   <sheetPr/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3172,27 +3247,29 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="4" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -3201,29 +3278,31 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3236,8 +3315,20 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="M3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4">
         <v>1</v>
       </c>
@@ -3271,8 +3362,20 @@
       <c r="L4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:12">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
       <c r="C5">
         <v>20</v>
       </c>
@@ -3298,10 +3401,22 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="6:7">
@@ -3312,9 +3427,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:16">
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -3343,16 +3458,40 @@
       <c r="L7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:4">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16">
       <c r="C8">
         <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="3:5">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
       <c r="C9">
         <v>21</v>
       </c>
@@ -3361,6 +3500,18 @@
       </c>
       <c r="E9" t="b">
         <v>0</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3368,11 +3519,11 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3397,20 +3548,20 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="C1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -3419,20 +3570,20 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -3445,7 +3596,7 @@
         <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
         <v>163</v>
@@ -3483,7 +3634,7 @@
         <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3523,10 +3674,10 @@
         <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3563,7 +3714,7 @@
         <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -3862,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>156</v>
@@ -4025,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>156</v>
@@ -4090,7 +4241,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -4118,7 +4269,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -4132,7 +4283,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -4146,7 +4297,7 @@
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -4160,7 +4311,7 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -4232,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4249,12 +4400,12 @@
         <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4266,12 +4417,12 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4283,12 +4434,12 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4300,7 +4451,7 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4314,12 +4465,12 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -4331,7 +4482,7 @@
         <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -4345,7 +4496,7 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4565,7 @@
         <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4431,12 +4582,12 @@
         <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -4447,13 +4598,13 @@
       <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>193</v>
+      <c r="E5" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -4464,13 +4615,13 @@
       <c r="D6" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>193</v>
+      <c r="E6" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4482,7 +4633,7 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4496,12 +4647,12 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -4512,8 +4663,8 @@
       <c r="D9" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>195</v>
+      <c r="E9" s="19" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -4527,7 +4678,7 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4541,7 +4692,7 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -4566,12 +4717,12 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -4587,14 +4738,14 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3">
@@ -4607,7 +4758,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -4623,6 +4774,655 @@
   <mergeCells count="2">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="9.57142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="48.75" customHeight="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="8:11">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="8:11">
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="8:11">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="8:11">
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4779,7 +5579,7 @@
       <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4814,7 +5614,7 @@
       <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4822,7 +5622,7 @@
       <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D7">
@@ -4849,7 +5649,7 @@
       <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="19" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4884,7 +5684,7 @@
       <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4919,7 +5719,7 @@
       <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4927,7 +5727,7 @@
       <c r="B10">
         <v>1006</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="19" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4996,17 +5796,17 @@
       <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="9" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -5045,17 +5845,17 @@
       <c r="L2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -5148,7 +5948,7 @@
       <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="19" t="s">
         <v>45</v>
       </c>
       <c r="L6" t="s">
@@ -5177,7 +5977,7 @@
       <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="20" t="s">
         <v>46</v>
       </c>
       <c r="D7">
@@ -5201,7 +6001,7 @@
       <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="19" t="s">
         <v>48</v>
       </c>
       <c r="L7" t="s">
@@ -5254,7 +6054,7 @@
       <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="19" t="s">
         <v>49</v>
       </c>
       <c r="L8">
@@ -5310,7 +6110,7 @@
       <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="19" t="s">
         <v>50</v>
       </c>
       <c r="L9">
@@ -5404,12 +6204,12 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -5424,12 +6224,12 @@
       <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -5505,7 +6305,7 @@
       <c r="B8">
         <v>1003</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D8" t="s">
@@ -5519,7 +6319,7 @@
       <c r="B9">
         <v>1004</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
       <c r="D9" t="s">
@@ -5533,7 +6333,7 @@
       <c r="B10">
         <v>1005</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
       <c r="D10" t="s">
@@ -5556,7 +6356,7 @@
       <c r="B11">
         <v>1006</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D11">
@@ -5567,7 +6367,7 @@
       <c r="B12">
         <v>1007</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D12">
@@ -5605,11 +6405,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -5618,21 +6418,21 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -5727,12 +6527,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -5741,20 +6541,20 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -5846,27 +6646,27 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="12" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -5875,35 +6675,35 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">

--- a/DesignerConfigs/Datas/demo.xlsx
+++ b/DesignerConfigs/Datas/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="12765" firstSheet="16" activeTab="16"/>
+    <workbookView windowWidth="23490" windowHeight="12765" firstSheet="15" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1333,7 +1333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,9 +1353,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1921,7 +1918,7 @@
   <sheetPr/>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1942,19 +1939,19 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="L1" t="s">
         <v>126</v>
       </c>
@@ -1972,19 +1969,19 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="L2" t="s">
         <v>129</v>
       </c>
@@ -2070,34 +2067,34 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="15" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
@@ -2106,34 +2103,34 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
@@ -2151,35 +2148,35 @@
       <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" t="s">
         <v>148</v>
       </c>
       <c r="L3" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
       <c r="P3" t="s">
         <v>148</v>
       </c>
       <c r="Q3" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
@@ -2197,23 +2194,23 @@
       <c r="S4" t="s">
         <v>149</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="V5" s="7"/>
+      <c r="V5" s="4"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6">
@@ -2518,35 +2515,35 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="15" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -2555,35 +2552,35 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -2601,11 +2598,11 @@
       <c r="G3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" t="s">
         <v>151</v>
       </c>
@@ -2833,12 +2830,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2847,12 +2844,12 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -2980,12 +2977,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -2994,12 +2991,12 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -3008,11 +3005,11 @@
       <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4">
@@ -3096,11 +3093,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" t="s">
         <v>157</v>
       </c>
@@ -3112,11 +3109,11 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>158</v>
       </c>
@@ -3125,11 +3122,11 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -3173,17 +3170,17 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="1" spans="2:6">
-      <c r="B7" s="13">
+    <row r="7" s="12" customFormat="1" spans="2:6">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>1003</v>
       </c>
-      <c r="E7" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3204,17 +3201,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" s="13" customFormat="1" spans="2:6">
-      <c r="B9" s="13">
+    <row r="9" s="12" customFormat="1" spans="2:6">
+      <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>1004</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3234,7 +3231,7 @@
   <sheetPr/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -3247,29 +3244,29 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="2" t="s">
         <v>170</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="11"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -3278,29 +3275,29 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
         <v>173</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -3548,20 +3545,20 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -3570,20 +3567,20 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -4598,7 +4595,7 @@
       <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4615,7 +4612,7 @@
       <c r="D6" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4663,7 +4660,7 @@
       <c r="D9" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4740,12 +4737,12 @@
       <c r="E2" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3">
@@ -4785,8 +4782,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4862,10 +4859,6 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
       <c r="L3">
         <v>1</v>
       </c>
@@ -5579,7 +5572,7 @@
       <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5614,7 +5607,7 @@
       <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5622,7 +5615,7 @@
       <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D7">
@@ -5649,7 +5642,7 @@
       <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5684,7 +5677,7 @@
       <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5719,7 +5712,7 @@
       <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5727,7 +5720,7 @@
       <c r="B10">
         <v>1006</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5796,17 +5789,17 @@
       <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="15" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -5845,17 +5838,17 @@
       <c r="L2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -5948,7 +5941,7 @@
       <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>45</v>
       </c>
       <c r="L6" t="s">
@@ -5977,7 +5970,7 @@
       <c r="B7">
         <v>1003</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D7">
@@ -6001,7 +5994,7 @@
       <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L7" t="s">
@@ -6054,7 +6047,7 @@
       <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>49</v>
       </c>
       <c r="L8">
@@ -6110,7 +6103,7 @@
       <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>50</v>
       </c>
       <c r="L9">
@@ -6204,12 +6197,12 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -6224,12 +6217,12 @@
       <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -6305,7 +6298,7 @@
       <c r="B8">
         <v>1003</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D8" t="s">
@@ -6319,7 +6312,7 @@
       <c r="B9">
         <v>1004</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" t="s">
@@ -6333,7 +6326,7 @@
       <c r="B10">
         <v>1005</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" t="s">
@@ -6356,7 +6349,7 @@
       <c r="B11">
         <v>1006</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D11">
@@ -6367,7 +6360,7 @@
       <c r="B12">
         <v>1007</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D12">
@@ -6405,11 +6398,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -6418,21 +6411,21 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -6527,12 +6520,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -6541,20 +6534,20 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
@@ -6646,27 +6639,27 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="18" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -6675,35 +6668,35 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
